--- a/study/excel/job.xlsx
+++ b/study/excel/job.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表二" sheetId="2" r:id="rId2"/>
+    <sheet name="表三" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="410">
   <si>
     <t>刘秀梅</t>
   </si>
@@ -1236,6 +1238,22 @@
   </si>
   <si>
     <t>浏览量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是表二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>表三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>莽</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>棒棒</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1603,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -5035,4 +5053,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A10:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>